--- a/orar2.xlsx
+++ b/orar2.xlsx
@@ -11,11 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="393">
-  <si>
-    <t>Grupele
-Zilele, Orele</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="392">
   <si>
     <t>CR-231</t>
   </si>
@@ -1659,7 +1655,7 @@
     <t>1) lab. 0.5 gr. CI
 Magariu N.
 406
-1) lab. 0.5 gr. BIDM
+2) lab. 0.5 gr. BIDM
 Brînză M.
 422</t>
   </si>
@@ -2233,6 +2229,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10.0"/>
@@ -2355,7 +2354,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2642,110 +2641,110 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1">
+        <v>45446.0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" ht="27.0" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2775,12 +2774,12 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
       <c r="AG2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="27.0" customHeight="1">
@@ -2801,7 +2800,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -2816,7 +2815,7 @@
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
@@ -2824,32 +2823,32 @@
     <row r="4" ht="27.0" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -2861,18 +2860,18 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="27.0" customHeight="1">
@@ -2881,18 +2880,18 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="6"/>
       <c r="M5" s="6"/>
@@ -2914,66 +2913,66 @@
     <row r="6" ht="27.0" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AB6" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="AC6" s="6"/>
       <c r="AD6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE6" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" ht="27.0" customHeight="1">
@@ -2991,180 +2990,180 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="AA7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC7" s="6"/>
     </row>
     <row r="8" ht="27.0" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="U8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="V8" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="Y8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Y8" s="8" t="s">
+      <c r="Z8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="AA8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB8" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="AC8" s="13"/>
       <c r="AD8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AE8" s="8" t="s">
+      <c r="AF8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AF8" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="AG8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="27.0" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="U9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" s="8" t="s">
+      <c r="AD9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AD9" s="7" t="s">
+      <c r="AE9" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="AE9" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" ht="27.0" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y10" s="8" t="s">
+      <c r="Z10" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="AA10" s="6"/>
       <c r="AB10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC10" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="AC10" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="AD10" s="6"/>
       <c r="AE10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF10" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="AF10" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="AG10" s="6"/>
     </row>
@@ -3179,7 +3178,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="AA11" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB11" s="6"/>
       <c r="AD11" s="8"/>
@@ -3189,7 +3188,7 @@
     <row r="12" ht="27.0" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3198,35 +3197,35 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
@@ -3244,14 +3243,14 @@
       <c r="H13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
@@ -3263,7 +3262,7 @@
     <row r="14" ht="27.0" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3332,30 +3331,30 @@
     </row>
     <row r="16" ht="27.0" customHeight="1">
       <c r="A16" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -3373,11 +3372,11 @@
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
       <c r="AB16" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC16" s="18"/>
       <c r="AD16" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
@@ -3388,7 +3387,7 @@
       <c r="B17" s="10"/>
       <c r="D17" s="6"/>
       <c r="F17" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G17" s="6"/>
       <c r="J17" s="6"/>
@@ -3403,7 +3402,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
@@ -3414,51 +3413,51 @@
     <row r="18" ht="27.0" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC18" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="AC18" s="11" t="s">
+      <c r="AD18" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
@@ -3469,20 +3468,20 @@
       <c r="B19" s="10"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="R19" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="S19" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -3495,76 +3494,76 @@
     <row r="20" ht="27.0" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="N20" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="O20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="O20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="8" t="s">
+      <c r="Q20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="R20" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="S20" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="T20" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="T20" s="8" t="s">
+      <c r="U20" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="W20" s="6"/>
       <c r="X20" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y20" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="Y20" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AB20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC20" s="8" t="s">
+      <c r="AD20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE20" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="AD20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE20" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
@@ -3573,95 +3572,95 @@
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="G21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="O21" s="6"/>
       <c r="W21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" ht="27.0" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R22" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="S22" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="S22" s="8" t="s">
+      <c r="T22" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T22" s="8" t="s">
+      <c r="U22" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="U22" s="8" t="s">
+      <c r="V22" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="V22" s="8" t="s">
+      <c r="W22" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="W22" s="8" t="s">
+      <c r="X22" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="X22" s="8" t="s">
+      <c r="Z22" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="Z22" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AD22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE22" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" ht="27.0" customHeight="1">
@@ -3669,7 +3668,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="6"/>
       <c r="M23" s="6"/>
@@ -3682,19 +3681,19 @@
     <row r="24" ht="27.0" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -3704,10 +3703,10 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V24" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
@@ -3715,10 +3714,10 @@
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG24" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="AG24" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="25" ht="27.0" customHeight="1">
@@ -3746,14 +3745,14 @@
     <row r="26" ht="27.0" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -3770,7 +3769,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
@@ -3817,7 +3816,7 @@
     <row r="28" ht="27.0" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -3888,10 +3887,10 @@
     </row>
     <row r="30" ht="27.0" customHeight="1">
       <c r="A30" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -3929,7 +3928,7 @@
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -3955,7 +3954,7 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
@@ -3967,21 +3966,21 @@
     <row r="32" ht="27.0" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -3993,24 +3992,24 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF32" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="AE32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF32" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="AG32" s="6"/>
     </row>
@@ -4035,11 +4034,11 @@
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z33" s="6"/>
       <c r="AE33" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
@@ -4047,30 +4046,30 @@
     <row r="34" ht="27.0" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
@@ -4078,32 +4077,32 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="T34" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="U34" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="U34" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="W34" s="6"/>
       <c r="X34" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y34" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z34" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="Z34" s="8" t="s">
+      <c r="AA34" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AA34" s="11" t="s">
+      <c r="AE34" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="AE34" s="8" t="s">
+      <c r="AF34" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="AF34" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="AG34" s="6"/>
     </row>
@@ -4123,86 +4122,86 @@
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="AF35" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG35" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" ht="27.0" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="M36" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="N36" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R36" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S36" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="S36" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="T36" s="6"/>
       <c r="U36" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="V36" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="V36" s="11" t="s">
+      <c r="X36" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="X36" s="11" t="s">
+      <c r="Y36" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="Y36" s="11" t="s">
+      <c r="Z36" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA36" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="Z36" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA36" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="AB36" s="6"/>
       <c r="AC36" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD36" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE36" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" ht="27.0" customHeight="1">
@@ -4213,67 +4212,67 @@
       <c r="K37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="T37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AC37" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD37" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="AD37" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="38" ht="27.0" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="K38" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="L38" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="R38" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE38" s="6"/>
       <c r="AF38" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG38" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="AG38" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="39" ht="27.0" customHeight="1">
@@ -4282,7 +4281,7 @@
       <c r="C39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J39" s="6"/>
       <c r="T39" s="6"/>
@@ -4291,14 +4290,14 @@
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AE39" s="6"/>
     </row>
     <row r="40" ht="27.0" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -4306,21 +4305,21 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J40" s="6"/>
       <c r="L40" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="R40" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="R40" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
@@ -4332,7 +4331,7 @@
       <c r="AE40" s="6"/>
       <c r="AF40" s="6"/>
       <c r="AG40" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" ht="27.0" customHeight="1">
@@ -4361,7 +4360,7 @@
     <row r="42" ht="27.0" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -4376,7 +4375,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P42" s="13"/>
       <c r="Q42" s="6"/>
@@ -4431,29 +4430,29 @@
     </row>
     <row r="44" ht="27.0" customHeight="1">
       <c r="A44" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="C44" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>251</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
@@ -4463,7 +4462,7 @@
       <c r="Q44" s="18"/>
       <c r="R44" s="18"/>
       <c r="S44" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T44" s="19"/>
       <c r="U44" s="19"/>
@@ -4471,14 +4470,14 @@
       <c r="W44" s="18"/>
       <c r="X44" s="18"/>
       <c r="Y44" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z44" s="19"/>
       <c r="AA44" s="18"/>
       <c r="AB44" s="18"/>
       <c r="AC44" s="18"/>
       <c r="AD44" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE44" s="18"/>
       <c r="AF44" s="18"/>
@@ -4502,14 +4501,14 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="AA45" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB45" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="AB45" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="AC45" s="6"/>
       <c r="AD45" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
@@ -4518,24 +4517,24 @@
     <row r="46" ht="27.0" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="G46" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -4545,16 +4544,16 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V46" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y46" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA46" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE46" s="6"/>
       <c r="AF46" s="6"/>
@@ -4573,11 +4572,11 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="AA47" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC47" s="6"/>
       <c r="AD47" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AE47" s="6"/>
       <c r="AF47" s="6"/>
@@ -4586,72 +4585,72 @@
     <row r="48" ht="27.0" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="I48" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="J48" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="K48" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="J48" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="K48" s="8" t="s">
+      <c r="L48" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="S48" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="S48" s="8" t="s">
+      <c r="T48" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="U48" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="T48" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="U48" s="8" t="s">
+      <c r="V48" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="V48" s="8" t="s">
+      <c r="W48" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="W48" s="8" t="s">
+      <c r="X48" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y48" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="X48" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y48" s="7" t="s">
+      <c r="Z48" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="Z48" s="7" t="s">
+      <c r="AA48" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC48" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="AA48" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC48" s="11" t="s">
-        <v>279</v>
       </c>
       <c r="AD48" s="6"/>
       <c r="AE48" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF48" s="6"/>
       <c r="AG48" s="6"/>
@@ -4660,20 +4659,20 @@
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="H49" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="T49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z49" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Z49" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="AD49" s="6"/>
       <c r="AF49" s="6"/>
@@ -4682,85 +4681,85 @@
     <row r="50" ht="27.0" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="M50" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="M50" s="7" t="s">
+      <c r="N50" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="N50" s="7" t="s">
+      <c r="O50" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="O50" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P50" s="8" t="s">
+      <c r="Q50" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="Q50" s="8" t="s">
+      <c r="R50" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="R50" s="7" t="s">
+      <c r="T50" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="T50" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="U50" s="6"/>
       <c r="V50" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="X50" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="X50" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC50" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="AC50" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="AD50" s="6"/>
       <c r="AE50" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" ht="27.0" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" s="6"/>
       <c r="J51" s="6"/>
       <c r="M51" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U51" s="6"/>
       <c r="Z51" s="6"/>
@@ -4771,7 +4770,7 @@
     <row r="52" ht="27.0" customHeight="1">
       <c r="A52" s="9"/>
       <c r="B52" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -4779,17 +4778,17 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L52" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="R52" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="R52" s="11" t="s">
-        <v>304</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
@@ -4803,13 +4802,13 @@
       <c r="AB52" s="6"/>
       <c r="AD52" s="6"/>
       <c r="AE52" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF52" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG52" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="AF52" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG52" s="8" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="53" ht="27.0" customHeight="1">
@@ -4837,7 +4836,7 @@
     <row r="54" ht="27.0" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -4845,24 +4844,24 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N54" s="6"/>
       <c r="O54" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P54" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="Q54" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
@@ -4879,10 +4878,10 @@
       <c r="AD54" s="6"/>
       <c r="AE54" s="6"/>
       <c r="AF54" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG54" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="AG54" s="8" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="55" ht="27.0" customHeight="1">
@@ -4899,10 +4898,10 @@
       <c r="L55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
@@ -4916,7 +4915,7 @@
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
       <c r="AC55" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD55" s="6"/>
       <c r="AE55" s="6"/>
@@ -4924,7 +4923,7 @@
     <row r="56" ht="27.0" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -4940,10 +4939,10 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
@@ -4997,10 +4996,10 @@
     </row>
     <row r="58" ht="27.0" customHeight="1">
       <c r="A58" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -5012,7 +5011,7 @@
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
       <c r="L58" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
@@ -5024,22 +5023,22 @@
       <c r="T58" s="18"/>
       <c r="U58" s="18"/>
       <c r="V58" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W58" s="18"/>
       <c r="X58" s="18"/>
       <c r="Y58" s="18"/>
       <c r="Z58" s="18"/>
       <c r="AA58" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB58" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="AB58" s="17" t="s">
-        <v>322</v>
       </c>
       <c r="AC58" s="18"/>
       <c r="AD58" s="18"/>
       <c r="AE58" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF58" s="18"/>
       <c r="AG58" s="18"/>
@@ -5067,15 +5066,15 @@
       <c r="U59" s="6"/>
       <c r="W59" s="6"/>
       <c r="X59" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB59" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="AB59" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
@@ -5085,65 +5084,65 @@
     <row r="60" ht="27.0" customHeight="1">
       <c r="A60" s="9"/>
       <c r="B60" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M60" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="N60" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="N60" s="8" t="s">
+      <c r="O60" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="O60" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="S60" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="R60" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="S60" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="T60" s="6"/>
       <c r="U60" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="W60" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="W60" s="8" t="s">
+      <c r="X60" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="X60" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB60" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
       <c r="AE60" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" ht="27.0" customHeight="1">
@@ -5154,26 +5153,26 @@
       <c r="F61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="T61" s="6"/>
       <c r="X61" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB61" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="AB61" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
@@ -5181,133 +5180,133 @@
     <row r="62" ht="27.0" customHeight="1">
       <c r="A62" s="9"/>
       <c r="B62" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G62" s="11" t="s">
+      <c r="J62" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="R62" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="R62" s="7" t="s">
+      <c r="T62" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="T62" s="8" t="s">
+      <c r="U62" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="V62" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="U62" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="V62" s="8" t="s">
+      <c r="W62" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="W62" s="8" t="s">
+      <c r="X62" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="X62" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="Y62" s="6"/>
       <c r="Z62" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA62" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="AA62" s="11" t="s">
+      <c r="AD62" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="AD62" s="23" t="s">
+      <c r="AE62" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="AE62" s="8" t="s">
-        <v>353</v>
-      </c>
       <c r="AF62" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG62" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" ht="27.0" customHeight="1">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="K63" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Y63" s="6"/>
       <c r="AD63" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" ht="27.0" customHeight="1">
       <c r="A64" s="9"/>
       <c r="B64" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="G64" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="J64" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="K64" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="J64" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="K64" s="11" t="s">
+      <c r="L64" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>360</v>
       </c>
       <c r="R64" s="6"/>
       <c r="S64" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V64" s="6"/>
       <c r="W64" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="X64" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="X64" s="8" t="s">
+      <c r="Y64" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="Y64" s="8" t="s">
+      <c r="Z64" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="Z64" s="8" t="s">
+      <c r="AA64" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="AA64" s="11" t="s">
+      <c r="AC64" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="AC64" s="11" t="s">
+      <c r="AD64" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="AD64" s="11" t="s">
+      <c r="AE64" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="AE64" s="6" t="s">
-        <v>369</v>
-      </c>
       <c r="AF64" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG64" s="13"/>
     </row>
@@ -5315,10 +5314,10 @@
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="R65" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V65" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE65" s="6"/>
       <c r="AG65" s="6"/>
@@ -5326,62 +5325,62 @@
     <row r="66" ht="27.0" customHeight="1">
       <c r="A66" s="9"/>
       <c r="B66" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="E66" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F66" s="8" t="s">
+      <c r="G66" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="H66" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>373</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N66" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="O66" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>375</v>
       </c>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
       <c r="Y66" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z66" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
       <c r="AC66" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AE66" s="6"/>
       <c r="AF66" s="6"/>
@@ -5402,7 +5401,7 @@
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
       <c r="Z67" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA67" s="6"/>
       <c r="AB67" s="6"/>
@@ -5415,7 +5414,7 @@
     <row r="68" ht="27.0" customHeight="1">
       <c r="A68" s="9"/>
       <c r="B68" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -5429,7 +5428,7 @@
       <c r="L68" s="8"/>
       <c r="M68" s="6"/>
       <c r="N68" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
@@ -5486,7 +5485,7 @@
     <row r="70" ht="27.0" customHeight="1">
       <c r="A70" s="9"/>
       <c r="B70" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -5557,10 +5556,10 @@
     </row>
     <row r="72" ht="27.0" customHeight="1">
       <c r="A72" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>382</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>383</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -5578,7 +5577,7 @@
       <c r="P72" s="18"/>
       <c r="Q72" s="18"/>
       <c r="R72" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S72" s="18"/>
       <c r="T72" s="18"/>
@@ -5633,7 +5632,7 @@
     <row r="74" ht="27.0" customHeight="1">
       <c r="A74" s="9"/>
       <c r="B74" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -5651,7 +5650,7 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
@@ -5688,7 +5687,7 @@
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
@@ -5709,7 +5708,7 @@
     <row r="76" ht="27.0" customHeight="1">
       <c r="A76" s="9"/>
       <c r="B76" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -5727,7 +5726,7 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
@@ -5782,7 +5781,7 @@
     <row r="78" ht="27.0" customHeight="1">
       <c r="A78" s="9"/>
       <c r="B78" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -5800,7 +5799,7 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
@@ -5855,7 +5854,7 @@
     <row r="80" ht="27.0" customHeight="1">
       <c r="A80" s="9"/>
       <c r="B80" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
